--- a/config_12.08/task_server.xlsx
+++ b/config_12.08/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="420">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>800000,2500000,12500000,25000000,75000000,230000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>101,102,103,104,105,106,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1695,36 +1691,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,117,118,119,120,121,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiyou_task_money</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1891,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2059,15 +2026,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2075,6 +2033,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2353,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +5114,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5185,7 +5149,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5220,7 +5184,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5427,7 +5391,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5462,7 +5426,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5497,7 +5461,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5529,10 +5493,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>384</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>385</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5564,13 +5528,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5599,13 +5563,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5634,13 +5598,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5669,13 +5633,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="D93" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>410</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>411</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5693,41 +5657,6 @@
         <v>32503651200</v>
       </c>
       <c r="K93" s="49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="14" customFormat="1">
-      <c r="A94" s="14">
-        <v>94</v>
-      </c>
-      <c r="B94" s="14">
-        <v>1</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="14">
-        <v>94</v>
-      </c>
-      <c r="G94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="14">
-        <v>1</v>
-      </c>
-      <c r="I94" s="14">
-        <v>946677600</v>
-      </c>
-      <c r="J94" s="14">
-        <v>32503651200</v>
-      </c>
-      <c r="K94" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -5740,11 +5669,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7977,11 +7906,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I86" s="42" t="s">
         <v>374</v>
@@ -8170,44 +8099,16 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J94">
         <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="61">
-        <v>94</v>
-      </c>
-      <c r="B95" s="61">
-        <v>94</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61">
-        <v>94</v>
-      </c>
-      <c r="E95" s="61">
-        <v>0</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="I95" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8219,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84:H85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9573,7 +9474,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9590,7 +9491,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9606,8 +9507,8 @@
       <c r="B81" s="57">
         <v>80</v>
       </c>
-      <c r="C81" s="64" t="s">
-        <v>404</v>
+      <c r="C81" s="61" t="s">
+        <v>403</v>
       </c>
       <c r="D81" s="57">
         <v>0</v>
@@ -9623,8 +9524,8 @@
       <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="64" t="s">
-        <v>417</v>
+      <c r="C82" s="61" t="s">
+        <v>416</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9640,7 +9541,7 @@
       <c r="B83" s="57">
         <v>80</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="62" t="s">
         <v>185</v>
       </c>
       <c r="D83" s="57">
@@ -9657,7 +9558,7 @@
       <c r="B84" s="57">
         <v>80</v>
       </c>
-      <c r="C84" s="65" t="s">
+      <c r="C84" s="62" t="s">
         <v>186</v>
       </c>
       <c r="D84" s="57">
@@ -9674,7 +9575,7 @@
       <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="62" t="s">
         <v>187</v>
       </c>
       <c r="D85" s="57">
@@ -9691,14 +9592,14 @@
       <c r="B86" s="57">
         <v>80</v>
       </c>
-      <c r="C86" s="64" t="s">
-        <v>406</v>
+      <c r="C86" s="61" t="s">
+        <v>405</v>
       </c>
       <c r="D86" s="57">
         <v>0</v>
       </c>
       <c r="E86" s="15"/>
-      <c r="H86" s="66"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" s="33" customFormat="1">
@@ -9708,14 +9609,14 @@
       <c r="B87" s="57">
         <v>80</v>
       </c>
-      <c r="C87" s="64" t="s">
-        <v>407</v>
+      <c r="C87" s="61" t="s">
+        <v>406</v>
       </c>
       <c r="D87" s="57">
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="66"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" s="33" customFormat="1">
@@ -9725,8 +9626,8 @@
       <c r="B88" s="57">
         <v>80</v>
       </c>
-      <c r="C88" s="64" t="s">
-        <v>408</v>
+      <c r="C88" s="61" t="s">
+        <v>407</v>
       </c>
       <c r="D88" s="57">
         <v>0</v>
@@ -9742,8 +9643,8 @@
       <c r="B89" s="57">
         <v>80</v>
       </c>
-      <c r="C89" s="64" t="s">
-        <v>424</v>
+      <c r="C89" s="61" t="s">
+        <v>419</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9759,8 +9660,8 @@
       <c r="B90" s="57">
         <v>80</v>
       </c>
-      <c r="C90" s="64" t="s">
-        <v>423</v>
+      <c r="C90" s="61" t="s">
+        <v>418</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -9943,20 +9844,6 @@
         <v>184</v>
       </c>
       <c r="D102" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="15">
-        <v>94</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="D103" s="15">
         <v>0</v>
       </c>
     </row>
@@ -11141,11 +11028,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12330,7 +12217,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12347,7 +12234,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12381,7 +12268,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12398,7 +12285,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12435,7 +12322,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12758,7 +12645,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12792,7 +12679,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12811,7 +12698,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12830,7 +12717,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12849,7 +12736,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -12868,7 +12755,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -12887,7 +12774,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -12906,7 +12793,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -12925,7 +12812,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -13114,7 +13001,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -13133,7 +13020,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -13152,7 +13039,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -13171,7 +13058,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -13190,7 +13077,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -13209,7 +13096,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -13228,7 +13115,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13247,7 +13134,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -13266,7 +13153,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -13283,7 +13170,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -13300,7 +13187,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -13317,7 +13204,7 @@
         <v>113</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -13334,7 +13221,7 @@
         <v>114</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -13351,114 +13238,12 @@
         <v>115</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
       <c r="E121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="11">
-        <v>121</v>
-      </c>
-      <c r="B122" s="61">
-        <v>116</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D122" s="61">
-        <v>30</v>
-      </c>
-      <c r="E122" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" s="61">
-        <v>117</v>
-      </c>
-      <c r="C123" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="61">
-        <v>100</v>
-      </c>
-      <c r="E123" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="11">
-        <v>123</v>
-      </c>
-      <c r="B124" s="61">
-        <v>118</v>
-      </c>
-      <c r="C124" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="61">
-        <v>500</v>
-      </c>
-      <c r="E124" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" s="61">
-        <v>119</v>
-      </c>
-      <c r="C125" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="61">
-        <v>1000</v>
-      </c>
-      <c r="E125" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="11">
-        <v>125</v>
-      </c>
-      <c r="B126" s="61">
-        <v>120</v>
-      </c>
-      <c r="C126" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D126" s="61">
-        <v>3000</v>
-      </c>
-      <c r="E126" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="11">
-        <v>126</v>
-      </c>
-      <c r="B127" s="61">
-        <v>121</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="D127" s="61">
-        <v>10000</v>
-      </c>
-      <c r="E127" s="61">
         <v>1</v>
       </c>
     </row>
@@ -13606,10 +13391,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="64">
         <v>1</v>
       </c>
     </row>
@@ -13617,8 +13402,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13668,10 +13453,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="64" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13679,17 +13464,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="64">
         <v>1</v>
       </c>
     </row>
@@ -13697,8 +13482,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13803,10 +13588,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="65">
         <v>1</v>
       </c>
     </row>
@@ -13814,8 +13599,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46821,10 +46606,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="64" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46832,8 +46617,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -46936,16 +46721,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
